--- a/data/trans_orig/P6601-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709DC7AC-E605-4E6A-BA73-C695B968F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69DDBD3-A699-4C17-8B08-7495B7AA5FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E84285F1-DDDB-4ECE-ACEF-B40BBBE507A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FCDE5C2-A3C4-4FB0-AE22-D6B532591623}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="557">
   <si>
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2007 (Tasa respuesta: 43,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>43,09%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,28 +137,28 @@
     <t>23,07%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,28 +167,28 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,1546 +200,1516 @@
     <t>44,4%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2015 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>6,7%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>54,61%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>13,54%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
     <t>8,59%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>6,83%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>3,78%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09260569-8A84-4F21-9EF1-8430BB520092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F85890-C08F-41A5-83A4-DD4EACF52D2A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3049,10 +3019,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>743</v>
@@ -3061,13 +3031,13 @@
         <v>778154</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1646</v>
@@ -3076,13 +3046,13 @@
         <v>1725372</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3067,13 @@
         <v>448663</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -3112,13 +3082,13 @@
         <v>169179</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>592</v>
@@ -3127,13 +3097,13 @@
         <v>617842</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3118,13 @@
         <v>375355</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -3163,13 +3133,13 @@
         <v>53989</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>414</v>
@@ -3178,13 +3148,13 @@
         <v>429344</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3169,13 @@
         <v>134150</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3214,10 +3184,10 @@
         <v>23046</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -3235,7 +3205,7 @@
         <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3261,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AB1FCF-C9E1-48FB-B560-861BE0579F80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC17ED6D-007B-4032-A08B-BB2880345C4F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3297,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3434,13 +3404,13 @@
         <v>74428</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>77</v>
@@ -3449,13 +3419,13 @@
         <v>83966</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -3464,13 +3434,13 @@
         <v>158395</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3455,10 @@
         <v>47695</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>172</v>
@@ -3518,10 +3488,10 @@
         <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3506,13 @@
         <v>44422</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -3551,13 +3521,13 @@
         <v>10369</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3566,13 +3536,13 @@
         <v>54791</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3557,13 @@
         <v>16442</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3602,7 +3572,7 @@
         <v>10401</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>191</v>
@@ -3796,10 +3766,10 @@
         <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3808,13 +3778,13 @@
         <v>43049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -3823,13 +3793,13 @@
         <v>215384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3814,13 @@
         <v>77019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -3859,13 +3829,13 @@
         <v>22177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>89</v>
@@ -3874,13 +3844,13 @@
         <v>99196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3918,13 @@
         <v>175470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3963,13 +3933,13 @@
         <v>131947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -3978,13 +3948,13 @@
         <v>307418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3969,13 @@
         <v>94204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -4014,13 +3984,13 @@
         <v>77006</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -4029,13 +3999,13 @@
         <v>171210</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4020,13 @@
         <v>35631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4065,10 +4035,10 @@
         <v>16888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>253</v>
@@ -4107,7 +4077,7 @@
         <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4116,13 +4086,13 @@
         <v>9055</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4131,13 +4101,13 @@
         <v>20007</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4175,13 @@
         <v>630609</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
@@ -4361,10 +4331,10 @@
         <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4373,13 +4343,13 @@
         <v>41633</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -4388,13 +4358,13 @@
         <v>146046</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4420,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976669EE-1E62-4007-9E5D-155212722A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FB6B0E-14C0-4AFE-BE6D-92CC4350F389}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4486,7 +4456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4593,13 +4563,13 @@
         <v>47229</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4608,13 +4578,13 @@
         <v>38482</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4623,13 +4593,13 @@
         <v>85711</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4614,13 @@
         <v>50892</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4659,13 +4629,13 @@
         <v>25735</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -4674,13 +4644,13 @@
         <v>76627</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4665,13 @@
         <v>23177</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4710,13 +4680,13 @@
         <v>3787</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4725,13 +4695,13 @@
         <v>26964</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4716,13 @@
         <v>15959</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4761,13 +4731,13 @@
         <v>4083</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4776,10 +4746,10 @@
         <v>20042</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>334</v>
@@ -4919,10 +4889,10 @@
         <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -4931,13 +4901,13 @@
         <v>532519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4922,13 @@
         <v>175678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -4967,13 +4937,13 @@
         <v>76874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4982,13 +4952,13 @@
         <v>252552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4973,13 @@
         <v>74083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5018,13 +4988,13 @@
         <v>27743</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -5033,13 +5003,13 @@
         <v>101826</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5077,13 @@
         <v>199136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -5122,13 +5092,13 @@
         <v>178981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>354</v>
@@ -5137,13 +5107,13 @@
         <v>378118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5128,13 @@
         <v>95062</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>78</v>
@@ -5173,13 +5143,13 @@
         <v>78085</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>167</v>
@@ -5239,13 +5209,13 @@
         <v>69966</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5266,7 @@
         <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5334,13 @@
         <v>586957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>543</v>
@@ -5379,13 +5349,13 @@
         <v>558384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>1089</v>
@@ -5394,13 +5364,13 @@
         <v>1145341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5385,13 @@
         <v>475101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
@@ -5430,13 +5400,13 @@
         <v>307193</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>745</v>
@@ -5445,13 +5415,13 @@
         <v>782294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5436,13 @@
         <v>236034</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
@@ -5481,13 +5451,13 @@
         <v>113447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>333</v>
@@ -5496,13 +5466,13 @@
         <v>349482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,10 +5487,10 @@
         <v>106242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>431</v>
@@ -5553,7 +5523,7 @@
         <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5579,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFA938F-38F4-4507-8D1F-4809D432BE9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A00E25-4402-48FA-959A-AD084C1A7636}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5806,10 +5776,10 @@
         <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5818,10 +5788,10 @@
         <v>19288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>450</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>451</v>
@@ -5854,13 +5824,13 @@
         <v>10229</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5869,13 +5839,13 @@
         <v>1335</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5884,13 +5854,13 @@
         <v>11564</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5875,13 @@
         <v>2449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5923,10 +5893,10 @@
         <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5935,13 +5905,13 @@
         <v>2449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>468</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5979,13 @@
         <v>249241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>279</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -6024,13 +5994,13 @@
         <v>231974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>477</v>
@@ -6039,13 +6009,13 @@
         <v>481216</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6030,13 @@
         <v>274450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -6075,13 +6045,13 @@
         <v>167724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>488</v>
@@ -6090,13 +6060,13 @@
         <v>442174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6081,13 @@
         <v>74604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -6129,10 +6099,10 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -6141,13 +6111,13 @@
         <v>110084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6132,13 @@
         <v>35829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>433</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -6180,10 +6150,10 @@
         <v>394</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -6192,13 +6162,13 @@
         <v>57116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6236,13 @@
         <v>159048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -6281,13 +6251,13 @@
         <v>135120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -6296,13 +6266,13 @@
         <v>294168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6287,13 @@
         <v>68204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -6332,13 +6302,13 @@
         <v>58200</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -6347,13 +6317,13 @@
         <v>126404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6338,13 @@
         <v>17864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6383,13 +6353,13 @@
         <v>8695</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -6398,13 +6368,13 @@
         <v>26559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6389,13 @@
         <v>8867</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6434,13 +6404,13 @@
         <v>11760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6449,13 +6419,13 @@
         <v>20628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6493,13 @@
         <v>431489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -6538,13 +6508,13 @@
         <v>389491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
@@ -6553,13 +6523,13 @@
         <v>820980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6544,13 @@
         <v>374048</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>543</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>544</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>356</v>
@@ -6589,13 +6559,13 @@
         <v>245212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
@@ -6604,13 +6574,13 @@
         <v>619260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6595,13 @@
         <v>102697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>552</v>
+        <v>223</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6640,13 +6610,13 @@
         <v>45510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>555</v>
+        <v>432</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -6655,13 +6625,13 @@
         <v>148207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6646,13 @@
         <v>47145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6691,13 +6661,13 @@
         <v>33048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6706,13 +6676,13 @@
         <v>80193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6738,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6601-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69DDBD3-A699-4C17-8B08-7495B7AA5FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DB584C-B610-49BF-BFE2-A938B8516937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FCDE5C2-A3C4-4FB0-AE22-D6B532591623}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3C9BD5-FFA0-4AB3-8D9E-747911D8FF97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
   <si>
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2007 (Tasa respuesta: 43,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>43,09%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,1579 +137,1594 @@
     <t>23,07%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F85890-C08F-41A5-83A4-DD4EACF52D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96CAD0-D094-4CEF-AB3A-C837584E2577}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3019,10 +3034,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>743</v>
@@ -3031,13 +3046,13 @@
         <v>778154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1646</v>
@@ -3046,13 +3061,13 @@
         <v>1725372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3082,13 @@
         <v>448663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -3082,13 +3097,13 @@
         <v>169179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>592</v>
@@ -3097,13 +3112,13 @@
         <v>617842</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3133,13 @@
         <v>375355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -3133,13 +3148,13 @@
         <v>53989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>414</v>
@@ -3151,10 +3166,10 @@
         <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3184,13 @@
         <v>134150</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3184,13 +3199,13 @@
         <v>23046</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -3199,13 +3214,13 @@
         <v>157196</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3276,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC17ED6D-007B-4032-A08B-BB2880345C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47992D2-665C-4D71-8B9B-A0D45B09889B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3297,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3404,13 +3419,13 @@
         <v>74428</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>77</v>
@@ -3419,13 +3434,13 @@
         <v>83966</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -3434,13 +3449,13 @@
         <v>158395</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,10 +3470,10 @@
         <v>47695</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>172</v>
@@ -3572,13 +3587,13 @@
         <v>10401</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3587,13 +3602,13 @@
         <v>26843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3676,13 @@
         <v>380710</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>322</v>
@@ -3676,13 +3691,13 @@
         <v>347145</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>678</v>
@@ -3691,13 +3706,13 @@
         <v>727855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3727,13 @@
         <v>284478</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3727,13 +3742,13 @@
         <v>160465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -3742,13 +3757,13 @@
         <v>444943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3778,13 @@
         <v>172336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3778,13 +3793,13 @@
         <v>43049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -3793,13 +3808,13 @@
         <v>215384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3829,13 @@
         <v>77019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -3829,10 +3844,10 @@
         <v>22177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>228</v>
@@ -3850,7 +3865,7 @@
         <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3933,13 @@
         <v>175470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3933,13 +3948,13 @@
         <v>131947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -3948,13 +3963,13 @@
         <v>307418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3984,13 @@
         <v>94204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -3984,13 +3999,13 @@
         <v>77006</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -3999,13 +4014,13 @@
         <v>171210</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4035,13 @@
         <v>35631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4035,13 +4050,13 @@
         <v>16888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -4050,13 +4065,13 @@
         <v>52519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4086,13 @@
         <v>10952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4092,7 +4107,7 @@
         <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4101,13 +4116,13 @@
         <v>20007</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4190,13 @@
         <v>630609</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
@@ -4190,13 +4205,13 @@
         <v>563058</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>1100</v>
@@ -4205,13 +4220,13 @@
         <v>1193668</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4241,13 @@
         <v>426377</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -4241,13 +4256,13 @@
         <v>272713</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>659</v>
@@ -4256,13 +4271,13 @@
         <v>699090</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4292,13 @@
         <v>252389</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -4292,13 +4307,13 @@
         <v>70306</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>309</v>
@@ -4307,13 +4322,13 @@
         <v>322695</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,10 +4343,10 @@
         <v>104413</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>293</v>
@@ -4346,10 +4361,10 @@
         <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -4358,13 +4373,13 @@
         <v>146046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4435,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FB6B0E-14C0-4AFE-BE6D-92CC4350F389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F907FF-A661-4640-BE8C-0B0E85C13002}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4698,10 +4713,10 @@
         <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4731,13 @@
         <v>15959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4731,13 +4746,13 @@
         <v>4083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4746,13 +4761,13 @@
         <v>20042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4835,13 @@
         <v>340592</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>333</v>
@@ -4835,13 +4850,13 @@
         <v>340920</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>652</v>
@@ -4850,13 +4865,13 @@
         <v>681512</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4886,13 @@
         <v>329146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>198</v>
@@ -4886,13 +4901,13 @@
         <v>203373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -4901,13 +4916,13 @@
         <v>532519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4937,13 @@
         <v>175678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -4937,13 +4952,13 @@
         <v>76874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4952,13 +4967,13 @@
         <v>252552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4988,13 @@
         <v>74083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4988,10 +5003,10 @@
         <v>27743</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>116</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>365</v>
@@ -5009,7 +5024,7 @@
         <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5092,13 @@
         <v>199136</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -5092,13 +5107,13 @@
         <v>178981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>354</v>
@@ -5107,13 +5122,13 @@
         <v>378118</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5143,13 @@
         <v>95062</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>78</v>
@@ -5143,13 +5158,13 @@
         <v>78085</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>167</v>
@@ -5209,13 +5224,13 @@
         <v>69966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5245,13 @@
         <v>16199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5245,13 +5260,13 @@
         <v>18600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5260,7 +5275,7 @@
         <v>34799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>401</v>
@@ -5490,10 +5505,10 @@
         <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5502,13 +5517,13 @@
         <v>50426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -5517,13 +5532,13 @@
         <v>156668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5594,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A00E25-4402-48FA-959A-AD084C1A7636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E1FB03-DE80-458E-A9C2-955A4E374F5F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5615,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,13 +5737,13 @@
         <v>23200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5737,13 +5752,13 @@
         <v>22396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5752,13 +5767,13 @@
         <v>45596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5788,13 @@
         <v>31394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5788,13 +5803,13 @@
         <v>19288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>453</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -5803,13 +5818,13 @@
         <v>50682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5839,13 @@
         <v>10229</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5839,13 +5854,13 @@
         <v>1335</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5854,13 +5869,13 @@
         <v>11564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5890,13 @@
         <v>2449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5893,10 +5908,10 @@
         <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5905,13 +5920,13 @@
         <v>2449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5994,13 @@
         <v>249241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -5994,13 +6009,13 @@
         <v>231974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>477</v>
@@ -6009,13 +6024,13 @@
         <v>481216</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6045,13 @@
         <v>274450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -6045,13 +6060,13 @@
         <v>167724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>488</v>
@@ -6060,13 +6075,13 @@
         <v>442174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6096,13 @@
         <v>74604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -6099,10 +6114,10 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -6111,13 +6126,13 @@
         <v>110084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6147,13 @@
         <v>35829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -6147,13 +6162,13 @@
         <v>21288</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -6162,13 +6177,13 @@
         <v>57116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6251,13 @@
         <v>159048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
@@ -6251,13 +6266,13 @@
         <v>135120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -6266,13 +6281,13 @@
         <v>294168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6302,13 @@
         <v>68204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -6302,13 +6317,13 @@
         <v>58200</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -6317,13 +6332,13 @@
         <v>126404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6353,13 @@
         <v>17864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6353,13 +6368,13 @@
         <v>8695</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -6368,13 +6383,13 @@
         <v>26559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>522</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6404,13 @@
         <v>8867</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6404,13 +6419,13 @@
         <v>11760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6419,13 +6434,13 @@
         <v>20628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6508,13 @@
         <v>431489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -6508,13 +6523,13 @@
         <v>389491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
@@ -6523,13 +6538,13 @@
         <v>820980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6559,13 @@
         <v>374048</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>542</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>356</v>
@@ -6559,13 +6574,13 @@
         <v>245212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
@@ -6574,13 +6589,13 @@
         <v>619260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6610,13 @@
         <v>102697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6610,13 +6625,13 @@
         <v>45510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -6625,13 +6640,13 @@
         <v>148207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>547</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6661,13 @@
         <v>47145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6661,13 +6676,13 @@
         <v>33048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6676,13 +6691,13 @@
         <v>80193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,7 +6753,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6601-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DB584C-B610-49BF-BFE2-A938B8516937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D40B862-31C8-4F98-8E6A-AC9397D6E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3C9BD5-FFA0-4AB3-8D9E-747911D8FF97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CC1A8F4-73E7-4A13-8D45-E828CB5E32EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
   <si>
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2007 (Tasa respuesta: 43,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>43,09%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1624 +107,1639 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2016 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>6,1%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96CAD0-D094-4CEF-AB3A-C837584E2577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463A6FA6-3D14-499B-9465-B478F242FFE4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3154,7 +3169,7 @@
         <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>414</v>
@@ -3163,13 +3178,13 @@
         <v>429344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3199,13 @@
         <v>134150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3199,13 +3214,13 @@
         <v>23046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -3214,13 +3229,13 @@
         <v>157196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47992D2-665C-4D71-8B9B-A0D45B09889B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C9A0E-CABB-49A4-A5EE-ED4FEEB44760}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3503,10 +3518,10 @@
         <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3536,13 @@
         <v>44422</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -3536,13 +3551,13 @@
         <v>10369</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -3551,13 +3566,13 @@
         <v>54791</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3587,13 @@
         <v>16442</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3587,13 +3602,13 @@
         <v>10401</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3602,13 +3617,13 @@
         <v>26843</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3691,13 @@
         <v>380710</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>322</v>
@@ -3691,13 +3706,13 @@
         <v>347145</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>678</v>
@@ -3706,13 +3721,13 @@
         <v>727855</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3742,13 @@
         <v>284478</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3742,13 +3757,13 @@
         <v>160465</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -3757,13 +3772,13 @@
         <v>444943</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3793,13 @@
         <v>172336</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3793,13 +3808,13 @@
         <v>43049</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -3808,13 +3823,13 @@
         <v>215384</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3844,13 @@
         <v>77019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -3844,13 +3859,13 @@
         <v>22177</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>89</v>
@@ -3859,13 +3874,13 @@
         <v>99196</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3948,13 @@
         <v>175470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3948,13 +3963,13 @@
         <v>131947</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -3963,13 +3978,13 @@
         <v>307418</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3999,13 @@
         <v>94204</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -3999,13 +4014,13 @@
         <v>77006</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -4014,13 +4029,13 @@
         <v>171210</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4050,13 @@
         <v>35631</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4050,13 +4065,13 @@
         <v>16888</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -4065,13 +4080,13 @@
         <v>52519</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4101,13 @@
         <v>10952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4101,13 +4116,13 @@
         <v>9055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4116,13 +4131,13 @@
         <v>20007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4205,13 @@
         <v>630609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>515</v>
@@ -4205,13 +4220,13 @@
         <v>563058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>1100</v>
@@ -4220,13 +4235,13 @@
         <v>1193668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4256,13 @@
         <v>426377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -4256,13 +4271,13 @@
         <v>272713</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>659</v>
@@ -4271,13 +4286,13 @@
         <v>699090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4307,13 @@
         <v>252389</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -4307,13 +4322,13 @@
         <v>70306</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>309</v>
@@ -4322,13 +4337,13 @@
         <v>322695</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4358,13 @@
         <v>104413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4358,13 +4373,13 @@
         <v>41633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -4373,13 +4388,13 @@
         <v>146046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F907FF-A661-4640-BE8C-0B0E85C13002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27384A00-A1D5-4D84-AF4F-5AC57923CAEC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4578,13 +4593,13 @@
         <v>47229</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4593,13 +4608,13 @@
         <v>38482</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4608,13 +4623,13 @@
         <v>85711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4644,13 @@
         <v>50892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4644,13 +4659,13 @@
         <v>25735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -4659,13 +4674,13 @@
         <v>76627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4695,13 @@
         <v>23177</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4695,13 +4710,13 @@
         <v>3787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4710,13 +4725,13 @@
         <v>26964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,10 +4746,10 @@
         <v>15959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>329</v>
@@ -4764,10 +4779,10 @@
         <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4850,13 @@
         <v>340592</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>333</v>
@@ -4850,13 +4865,13 @@
         <v>340920</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>652</v>
@@ -4865,13 +4880,13 @@
         <v>681512</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4901,13 @@
         <v>329146</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>198</v>
@@ -4901,13 +4916,13 @@
         <v>203373</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -4916,13 +4931,13 @@
         <v>532519</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4952,13 @@
         <v>175678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -4952,13 +4967,13 @@
         <v>76874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4967,13 +4982,13 @@
         <v>252552</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5003,13 @@
         <v>74083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -5003,13 +5018,13 @@
         <v>27743</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -5018,13 +5033,13 @@
         <v>101826</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5245,7 @@
         <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5260,13 @@
         <v>16199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5260,13 +5275,13 @@
         <v>18600</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5275,13 +5290,13 @@
         <v>34799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5364,13 @@
         <v>586957</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>543</v>
@@ -5364,13 +5379,13 @@
         <v>558384</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>1089</v>
@@ -5379,13 +5394,13 @@
         <v>1145341</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5415,13 @@
         <v>475101</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
@@ -5415,13 +5430,13 @@
         <v>307193</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>745</v>
@@ -5430,13 +5445,13 @@
         <v>782294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5466,13 @@
         <v>236034</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
@@ -5466,13 +5481,13 @@
         <v>113447</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>333</v>
@@ -5481,13 +5496,13 @@
         <v>349482</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5517,13 @@
         <v>106242</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -5517,13 +5532,13 @@
         <v>50426</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -5532,13 +5547,13 @@
         <v>156668</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E1FB03-DE80-458E-A9C2-955A4E374F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFE560E-8CAB-4467-8081-466C2EC7D145}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5752,13 @@
         <v>23200</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5752,13 +5767,13 @@
         <v>22396</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5767,13 +5782,13 @@
         <v>45596</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5803,13 @@
         <v>31394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5803,13 +5818,13 @@
         <v>19288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -5818,13 +5833,13 @@
         <v>50682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5854,13 @@
         <v>10229</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5854,13 +5869,13 @@
         <v>1335</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -5869,13 +5884,13 @@
         <v>11564</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5905,13 @@
         <v>2449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5908,10 +5923,10 @@
         <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5920,13 +5935,13 @@
         <v>2449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6009,13 @@
         <v>249241</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -6009,13 +6024,13 @@
         <v>231974</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>477</v>
@@ -6024,13 +6039,13 @@
         <v>481216</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6060,13 @@
         <v>274450</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -6060,13 +6075,13 @@
         <v>167724</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>488</v>
@@ -6075,13 +6090,13 @@
         <v>442174</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6111,13 @@
         <v>74604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -6114,10 +6129,10 @@
         <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -6126,13 +6141,13 @@
         <v>110084</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6162,13 @@
         <v>35829</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -6162,13 +6177,13 @@
         <v>21288</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -6177,10 +6192,10 @@
         <v>57116</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>499</v>
@@ -6368,13 +6383,13 @@
         <v>8695</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -6383,13 +6398,13 @@
         <v>26559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6419,13 @@
         <v>8867</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6422,10 +6437,10 @@
         <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6434,13 +6449,13 @@
         <v>20628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6523,13 @@
         <v>431489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -6523,13 +6538,13 @@
         <v>389491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
@@ -6538,13 +6553,13 @@
         <v>820980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6574,13 @@
         <v>374048</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>356</v>
@@ -6574,13 +6589,13 @@
         <v>245212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
@@ -6589,13 +6604,13 @@
         <v>619260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6625,13 @@
         <v>102697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>552</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6625,13 +6640,13 @@
         <v>45510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -6640,13 +6655,13 @@
         <v>148207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6676,13 @@
         <v>47145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6676,13 +6691,13 @@
         <v>33048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>563</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6691,13 +6706,13 @@
         <v>80193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6601-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D40B862-31C8-4F98-8E6A-AC9397D6E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0752FF6-F1ED-4A81-B072-F9A151888C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CC1A8F4-73E7-4A13-8D45-E828CB5E32EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EFE77F3-464A-4D96-838C-3082D8203AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
   <si>
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2007 (Tasa respuesta: 43,07%)</t>
   </si>
@@ -1355,85 +1355,76 @@
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1442,304 +1433,298 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463A6FA6-3D14-499B-9465-B478F242FFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B913E2-0421-4A6A-AA67-14C032A72A1E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3005,7 +2990,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3310,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C9A0E-CABB-49A4-A5EE-ED4FEEB44760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963EF85A-76BA-4822-97DF-844B48DEB7C4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4469,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27384A00-A1D5-4D84-AF4F-5AC57923CAEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF54E7C-DB13-4A11-BF4A-8E1AB4A687AA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,7 +4707,7 @@
         <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>26964</v>
+        <v>26963</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>325</v>
@@ -4824,7 +4809,7 @@
         <v>201</v>
       </c>
       <c r="N8" s="7">
-        <v>209344</v>
+        <v>209343</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5628,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFE560E-8CAB-4467-8081-466C2EC7D145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B04668-5B33-4921-AB77-B19650D32DAC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5749,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>23200</v>
+        <v>22237</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>438</v>
@@ -5764,7 +5749,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>22396</v>
+        <v>20564</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>441</v>
@@ -5779,16 +5764,16 @@
         <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>45596</v>
+        <v>42802</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,46 +5785,46 @@
         <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>31394</v>
+        <v>30031</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>19288</v>
+        <v>17307</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>50682</v>
+        <v>47338</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,46 +5836,46 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>10229</v>
+        <v>10726</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1335</v>
+        <v>1252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>458</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>11564</v>
+        <v>11978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,16 +5887,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2449</v>
+        <v>2419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5923,25 +5908,25 @@
         <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2449</v>
+        <v>2419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5938,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5968,7 +5953,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5983,7 +5968,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -6006,46 +5991,46 @@
         <v>178</v>
       </c>
       <c r="D9" s="7">
-        <v>249241</v>
+        <v>436691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
       </c>
       <c r="I9" s="7">
-        <v>231974</v>
+        <v>238004</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M9" s="7">
         <v>477</v>
       </c>
       <c r="N9" s="7">
-        <v>481216</v>
+        <v>674695</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>477</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,46 +6042,46 @@
         <v>254</v>
       </c>
       <c r="D10" s="7">
-        <v>274450</v>
+        <v>265544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>167724</v>
+        <v>152613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>488</v>
       </c>
       <c r="N10" s="7">
-        <v>442174</v>
+        <v>418157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,46 +6093,46 @@
         <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>74604</v>
+        <v>69357</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>35480</v>
+        <v>31903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>110084</v>
+        <v>101260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,46 +6144,46 @@
         <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>35829</v>
+        <v>33770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>21288</v>
+        <v>19235</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>57116</v>
+        <v>53005</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6195,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>634123</v>
+        <v>805362</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6225,7 +6210,7 @@
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>456467</v>
+        <v>441755</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6240,7 +6225,7 @@
         <v>1124</v>
       </c>
       <c r="N13" s="7">
-        <v>1090590</v>
+        <v>1247117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6263,46 +6248,46 @@
         <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>159048</v>
+        <v>152467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>135120</v>
+        <v>125220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
       </c>
       <c r="N14" s="7">
-        <v>294168</v>
+        <v>277687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,46 +6299,46 @@
         <v>67</v>
       </c>
       <c r="D15" s="7">
-        <v>68204</v>
+        <v>64568</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>510</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
       </c>
       <c r="I15" s="7">
-        <v>58200</v>
+        <v>54884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
       </c>
       <c r="N15" s="7">
-        <v>126404</v>
+        <v>119452</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,46 +6350,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>17864</v>
+        <v>16613</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>8695</v>
+        <v>8010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
       </c>
       <c r="N16" s="7">
-        <v>26559</v>
+        <v>24623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,46 +6401,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>8867</v>
+        <v>8411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>11760</v>
+        <v>10952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>20628</v>
+        <v>19363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6452,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6482,7 +6467,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6497,7 +6482,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6520,46 +6505,46 @@
         <v>347</v>
       </c>
       <c r="D19" s="7">
-        <v>431489</v>
+        <v>611395</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
       </c>
       <c r="I19" s="7">
-        <v>389491</v>
+        <v>383789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
       </c>
       <c r="N19" s="7">
-        <v>820980</v>
+        <v>995184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,46 +6556,46 @@
         <v>356</v>
       </c>
       <c r="D20" s="7">
-        <v>374048</v>
+        <v>360143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>356</v>
       </c>
       <c r="I20" s="7">
-        <v>245212</v>
+        <v>224803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
       </c>
       <c r="N20" s="7">
-        <v>619260</v>
+        <v>584946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,46 +6607,46 @@
         <v>92</v>
       </c>
       <c r="D21" s="7">
-        <v>102697</v>
+        <v>96697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>552</v>
+        <v>84</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
       </c>
       <c r="I21" s="7">
-        <v>45510</v>
+        <v>41164</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
       </c>
       <c r="N21" s="7">
-        <v>148207</v>
+        <v>137861</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,46 +6658,46 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>47145</v>
+        <v>44600</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>33048</v>
+        <v>30188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>80193</v>
+        <v>74788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,7 +6709,7 @@
         <v>832</v>
       </c>
       <c r="D23" s="7">
-        <v>955379</v>
+        <v>1112835</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6739,7 +6724,7 @@
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>713261</v>
+        <v>679944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6754,7 +6739,7 @@
         <v>1793</v>
       </c>
       <c r="N23" s="7">
-        <v>1668640</v>
+        <v>1792779</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
